--- a/Övningar.xlsx
+++ b/Övningar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/287f8aa4f4de1d19/!Programming/JavaScript/Snake/!Snake - with group 3/03 Snake - Övningar klara/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/287f8aa4f4de1d19/!!!Systementor/Kurser/FrontEnd/03 JAVASCRIPT - UPDATE/92 Snake/02 Snake - Övningar klara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="422" documentId="11_F25DC773A252ABDACC1048EE519B7B865BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE9C749-A658-4248-A8D5-8F4F935A1718}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="11_F25DC773A252ABDACC1048EE519B7B865BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C543A9D3-0FD5-4B95-9F3A-E9B060E17042}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15210" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid (14x14)" sheetId="8" r:id="rId1"/>
@@ -1987,12 +1987,12 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>1</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2708,12 +2708,12 @@
       <selection activeCell="B2" sqref="B2:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>1</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3109,13 +3109,13 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>1</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3545,13 +3545,13 @@
       <selection activeCell="K2" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>1</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3993,13 +3993,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>1</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4441,13 +4441,13 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>1</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4889,13 +4889,13 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>1</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5333,23 +5333,23 @@
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="163.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="31"/>
       <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="29">
         <v>1</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B4" s="29">
         <v>2</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="29">
         <v>3</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B6" s="29">
         <v>4</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="29">
         <v>5</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B8" s="29">
         <v>6</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B9" s="29">
         <v>7</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="29">
         <v>8</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B11" s="29">
         <v>9</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B12" s="29">
         <v>10</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B13" s="29">
         <v>11</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B14" s="29">
         <v>12</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B15" s="29">
         <v>13</v>
       </c>
@@ -5453,13 +5453,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B16" s="32"/>
       <c r="C16" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B17" s="29">
         <v>14</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="61.2" x14ac:dyDescent="1.1000000000000001">
+    <row r="18" spans="2:3" ht="61.5" x14ac:dyDescent="0.9">
       <c r="C18" s="28" t="s">
         <v>25</v>
       </c>
